--- a/공지/샘플데이터 수정 예시안/참고 코드표(심영섭님).xlsx
+++ b/공지/샘플데이터 수정 예시안/참고 코드표(심영섭님).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungWoo\Desktop\GitHub\-ERP-System\공지\샘플데이터 수정 예시안\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Desktop\GitHub\-ERP-System\공지\샘플데이터 수정 예시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4019F378-BF13-40FC-9EDC-5D2FC4CF181B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF6A277-80AE-445F-80E1-F73674ED352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="2925" yWindow="1950" windowWidth="22110" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>BRAND_CODE</t>
   </si>
@@ -293,12 +293,84 @@
   </si>
   <si>
     <t>다이슨</t>
+  </si>
+  <si>
+    <t>샤이니다이아블랙</t>
+  </si>
+  <si>
+    <t>글램딥차콜</t>
+  </si>
+  <si>
+    <t>차콜다크그레이</t>
+  </si>
+  <si>
+    <t>헤이즈실버</t>
+  </si>
+  <si>
+    <t>메탈</t>
+  </si>
+  <si>
+    <t>피치골드</t>
+  </si>
+  <si>
+    <t>블랙</t>
+  </si>
+  <si>
+    <t>스모키그레이</t>
+  </si>
+  <si>
+    <t>올리브그린</t>
+  </si>
+  <si>
+    <t>모던스테인리스</t>
+  </si>
+  <si>
+    <t>블랙케비어</t>
+  </si>
+  <si>
+    <t>이녹스</t>
+  </si>
+  <si>
+    <t>라벤더그레이</t>
+  </si>
+  <si>
+    <t>미드프리실버</t>
+  </si>
+  <si>
+    <t>블랙스테인리스</t>
+  </si>
+  <si>
+    <t>미드블랙</t>
+  </si>
+  <si>
+    <t>스톤실버</t>
+  </si>
+  <si>
+    <t>미드그레이</t>
+  </si>
+  <si>
+    <t>그린</t>
+  </si>
+  <si>
+    <t>블루</t>
+  </si>
+  <si>
+    <t>퍼플</t>
+  </si>
+  <si>
+    <t>버건디</t>
+  </si>
+  <si>
+    <t>브라운</t>
+  </si>
+  <si>
+    <t>옐로우</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -812,11 +884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1339,10 +1411,10 @@
       <c r="C27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>26</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H27" s="4">
@@ -1359,6 +1431,12 @@
       <c r="C28" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="E28" s="4">
+        <v>27</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="H28" s="6">
         <v>9</v>
       </c>
@@ -1373,6 +1451,12 @@
       <c r="C29" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="E29" s="4">
+        <v>28</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
@@ -1381,6 +1465,12 @@
       <c r="C30" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="E30" s="4">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1389,6 +1479,12 @@
       <c r="C31" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="E31" s="4">
+        <v>30</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1397,21 +1493,175 @@
       <c r="C32" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E32" s="4">
+        <v>31</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E33" s="4">
+        <v>32</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <v>33</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>90</v>
+      </c>
+      <c r="E34" s="4">
+        <v>33</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="4">
+        <v>34</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="4">
+        <v>35</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E37" s="4">
+        <v>36</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E38" s="4">
+        <v>37</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E39" s="4">
+        <v>38</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E40" s="4">
+        <v>39</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E41" s="4">
+        <v>40</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E42" s="4">
+        <v>41</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E43" s="4">
+        <v>42</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E44" s="4">
+        <v>43</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E45" s="4">
+        <v>44</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E46" s="4">
+        <v>45</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E47" s="4">
+        <v>46</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E48" s="4">
+        <v>47</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="4">
+        <v>48</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="4">
+        <v>49</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="6">
+        <v>50</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/공지/샘플데이터 수정 예시안/참고 코드표(심영섭님).xlsx
+++ b/공지/샘플데이터 수정 예시안/참고 코드표(심영섭님).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo\Desktop\GitHub\-ERP-System\공지\샘플데이터 수정 예시안\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungWoo\Desktop\GitHub\-ERP-System\공지\샘플데이터 수정 예시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF6A277-80AE-445F-80E1-F73674ED352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B827F0-FF5B-40EB-8BBB-7B8FE0A7CBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1950" windowWidth="22110" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13110" yWindow="1530" windowWidth="19995" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>BRAND_CODE</t>
   </si>
@@ -365,13 +365,328 @@
   </si>
   <si>
     <t>옐로우</t>
+  </si>
+  <si>
+    <t>팬텀 블랙</t>
+  </si>
+  <si>
+    <t>팬텀 그린</t>
+  </si>
+  <si>
+    <t>팬텀 실버</t>
+  </si>
+  <si>
+    <t>크림</t>
+  </si>
+  <si>
+    <t>라벤더</t>
+  </si>
+  <si>
+    <t>팬텀 그레이</t>
+  </si>
+  <si>
+    <t>팬텀 핑크</t>
+  </si>
+  <si>
+    <t>팬텀 바이올렛</t>
+  </si>
+  <si>
+    <t>팬텀 화이트</t>
+  </si>
+  <si>
+    <t>미스틱 블랙</t>
+  </si>
+  <si>
+    <t>미스틱 브론즈</t>
+  </si>
+  <si>
+    <t>클라우즈 라벤더</t>
+  </si>
+  <si>
+    <t>클라우드 네이비</t>
+  </si>
+  <si>
+    <t>클라우드 민트</t>
+  </si>
+  <si>
+    <t>클라우드 레드</t>
+  </si>
+  <si>
+    <t>클라우드 화이트</t>
+  </si>
+  <si>
+    <t>골드</t>
+  </si>
+  <si>
+    <t>핑크</t>
+  </si>
+  <si>
+    <t>퍼시픽 블루</t>
+  </si>
+  <si>
+    <t>스페이스 그레이</t>
+  </si>
+  <si>
+    <t>아스트로 블랙</t>
+  </si>
+  <si>
+    <t>메탈릭 실버</t>
+  </si>
+  <si>
+    <t>문라이트 티탄</t>
+  </si>
+  <si>
+    <t>프로즌 화이트</t>
+  </si>
+  <si>
+    <t>오로라 블랙</t>
+  </si>
+  <si>
+    <t>세라믹 화이트</t>
+  </si>
+  <si>
+    <t>미러 티탄</t>
+  </si>
+  <si>
+    <t>미러 레드</t>
+  </si>
+  <si>
+    <t>오로라 화이트</t>
+  </si>
+  <si>
+    <t>오로라 그레이</t>
+  </si>
+  <si>
+    <t>오로라 그린</t>
+  </si>
+  <si>
+    <t>일루젼 선셋</t>
+  </si>
+  <si>
+    <t>뉴 오로라 블랙</t>
+  </si>
+  <si>
+    <t>뉴 모로칸 블랙</t>
+  </si>
+  <si>
+    <t>카민 레드</t>
+  </si>
+  <si>
+    <t>뉴 모로칸 블루</t>
+  </si>
+  <si>
+    <t>미드나이트 그레이</t>
+  </si>
+  <si>
+    <t>폴라 화이트</t>
+  </si>
+  <si>
+    <t>포레스트 그린</t>
+  </si>
+  <si>
+    <t>오닉스 블랙</t>
+  </si>
+  <si>
+    <t>민트</t>
+  </si>
+  <si>
+    <t>페블 화이트</t>
+  </si>
+  <si>
+    <t>오닉스 그레이</t>
+  </si>
+  <si>
+    <t>글래시어 블루</t>
+  </si>
+  <si>
+    <t>그라디언트 브론즈</t>
+  </si>
+  <si>
+    <t>슬레이트 그레이</t>
+  </si>
+  <si>
+    <t>로즈골드</t>
+  </si>
+  <si>
+    <t>얼씨골드</t>
+  </si>
+  <si>
+    <t>파인그레이</t>
+  </si>
+  <si>
+    <t>브론즈</t>
+  </si>
+  <si>
+    <t>다크실버</t>
+  </si>
+  <si>
+    <t>포트리스 그레이</t>
+  </si>
+  <si>
+    <t>이클립스 그레이</t>
+  </si>
+  <si>
+    <t>이클립스실버</t>
+  </si>
+  <si>
+    <t>스테인리스스틸</t>
+  </si>
+  <si>
+    <t>타이탄블랙</t>
+  </si>
+  <si>
+    <t>맨해튼미드나잇</t>
+  </si>
+  <si>
+    <t>샤이니 사피아노</t>
+  </si>
+  <si>
+    <t>샤이니퓨어</t>
+  </si>
+  <si>
+    <t>그레이 블랙</t>
+  </si>
+  <si>
+    <t>클레이브라운+베이지</t>
+  </si>
+  <si>
+    <t>그린 실버</t>
+  </si>
+  <si>
+    <t>세라블랙</t>
+  </si>
+  <si>
+    <t>코타 펀 그린</t>
+  </si>
+  <si>
+    <t>글램화이트 글램핑크</t>
+  </si>
+  <si>
+    <t>글램새틴</t>
+  </si>
+  <si>
+    <t>브라우니실버</t>
+  </si>
+  <si>
+    <t>새틴베이지 새틴토프</t>
+  </si>
+  <si>
+    <t>엘레강트이녹스</t>
+  </si>
+  <si>
+    <t>내추럴</t>
+  </si>
+  <si>
+    <t>리얼메탈</t>
+  </si>
+  <si>
+    <t>젠틀블랙</t>
+  </si>
+  <si>
+    <t>실버메탈</t>
+  </si>
+  <si>
+    <t>마인드실버</t>
+  </si>
+  <si>
+    <t>그랜드실버</t>
+  </si>
+  <si>
+    <t>매트그린</t>
+  </si>
+  <si>
+    <t>다크타이탄실버</t>
+  </si>
+  <si>
+    <t>어반그레이</t>
+  </si>
+  <si>
+    <t>매트화이트</t>
+  </si>
+  <si>
+    <t>플래티늄브라운</t>
+  </si>
+  <si>
+    <t>이녹스실버</t>
+  </si>
+  <si>
+    <t>새틴라이트베이지</t>
+  </si>
+  <si>
+    <t>메탈릭그레이</t>
+  </si>
+  <si>
+    <t>딥실버</t>
+  </si>
+  <si>
+    <t>샌드베이지</t>
+  </si>
+  <si>
+    <t>미들블랙</t>
+  </si>
+  <si>
+    <t>미들프리실버</t>
+  </si>
+  <si>
+    <t>애플</t>
+  </si>
+  <si>
+    <t>레노버</t>
+  </si>
+  <si>
+    <t>태클라스트</t>
+  </si>
+  <si>
+    <t>디클</t>
+  </si>
+  <si>
+    <t>CHUWI</t>
+  </si>
+  <si>
+    <t>엠피지오</t>
+  </si>
+  <si>
+    <t>아마존</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>한성</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>한성컴퓨터</t>
+  </si>
+  <si>
+    <t>ACER</t>
+  </si>
+  <si>
+    <t>와사비망고</t>
+  </si>
+  <si>
+    <t>이노스</t>
+  </si>
+  <si>
+    <t>TNM</t>
+  </si>
+  <si>
+    <t>시티브</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +701,20 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -478,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,6 +831,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I51"/>
+  <dimension ref="B1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -926,13 +1283,13 @@
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="4">
@@ -946,13 +1303,13 @@
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="4">
@@ -966,13 +1323,13 @@
       <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="4">
@@ -986,13 +1343,13 @@
       <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="4">
@@ -1006,13 +1363,13 @@
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="6">
@@ -1026,13 +1383,13 @@
       <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1040,13 +1397,13 @@
       <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1060,13 +1417,13 @@
       <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="4">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="4">
@@ -1080,13 +1437,13 @@
       <c r="B10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="4">
@@ -1100,13 +1457,13 @@
       <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="4">
@@ -1120,13 +1477,13 @@
       <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="6">
@@ -1140,13 +1497,13 @@
       <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1154,13 +1511,13 @@
       <c r="B14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1174,13 +1531,13 @@
       <c r="B15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H15" s="4">
@@ -1194,13 +1551,13 @@
       <c r="B16" s="4">
         <v>15</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H16" s="4">
@@ -1214,13 +1571,13 @@
       <c r="B17" s="4">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="6">
@@ -1234,13 +1591,13 @@
       <c r="B18" s="4">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="4">
         <v>17</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1248,13 +1605,13 @@
       <c r="B19" s="4">
         <v>18</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="4">
         <v>18</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1268,13 +1625,13 @@
       <c r="B20" s="4">
         <v>19</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>422</v>
       </c>
       <c r="E20" s="4">
         <v>19</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H20" s="4">
@@ -1288,13 +1645,13 @@
       <c r="B21" s="4">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="4">
         <v>20</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="4">
@@ -1308,13 +1665,13 @@
       <c r="B22" s="4">
         <v>21</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E22" s="4">
         <v>21</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="8" t="s">
         <v>66</v>
       </c>
       <c r="H22" s="4">
@@ -1328,13 +1685,13 @@
       <c r="B23" s="4">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E23" s="4">
         <v>22</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="8" t="s">
         <v>69</v>
       </c>
       <c r="H23" s="4">
@@ -1348,13 +1705,13 @@
       <c r="B24" s="4">
         <v>23</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E24" s="4">
         <v>23</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H24" s="4">
@@ -1368,13 +1725,13 @@
       <c r="B25" s="4">
         <v>24</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="4">
         <v>24</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="8" t="s">
         <v>75</v>
       </c>
       <c r="H25" s="4">
@@ -1388,13 +1745,13 @@
       <c r="B26" s="4">
         <v>25</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="4">
         <v>25</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H26" s="4">
@@ -1408,13 +1765,13 @@
       <c r="B27" s="4">
         <v>26</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E27" s="4">
         <v>26</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H27" s="4">
@@ -1428,13 +1785,13 @@
       <c r="B28" s="4">
         <v>27</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E28" s="4">
         <v>27</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H28" s="6">
@@ -1448,13 +1805,13 @@
       <c r="B29" s="4">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E29" s="4">
         <v>28</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1462,13 +1819,13 @@
       <c r="B30" s="4">
         <v>29</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E30" s="4">
         <v>29</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1476,13 +1833,13 @@
       <c r="B31" s="4">
         <v>30</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="4">
         <v>30</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1490,13 +1847,13 @@
       <c r="B32" s="4">
         <v>31</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="8" t="s">
         <v>88</v>
       </c>
       <c r="E32" s="4">
         <v>31</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1504,164 +1861,968 @@
       <c r="B33" s="4">
         <v>32</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E33" s="4">
         <v>32</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>33</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E34" s="4">
         <v>33</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>34</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="E35" s="4">
         <v>34</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>35</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="E36" s="4">
         <v>35</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>36</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="E37" s="4">
         <v>36</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>37</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="E38" s="4">
         <v>37</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>38</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="E39" s="4">
         <v>38</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="E40" s="4">
         <v>39</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>208</v>
+      </c>
       <c r="E41" s="4">
         <v>40</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>41</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="E42" s="4">
         <v>41</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="E43" s="4">
         <v>42</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>43</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="E44" s="4">
         <v>43</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>44</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="E45" s="4">
         <v>44</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>45</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="E46" s="4">
         <v>45</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>46</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="E47" s="4">
         <v>46</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>47</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="E48" s="4">
         <v>47</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>48</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>216</v>
+      </c>
       <c r="E49" s="4">
         <v>48</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>49</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="E50" s="4">
         <v>49</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E51" s="6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
         <v>50</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="C51" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" s="4">
+        <v>50</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="6">
+        <v>51</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="4">
+        <v>51</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E53" s="4">
+        <v>52</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E54" s="4">
+        <v>53</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="4">
+        <v>54</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E56" s="4">
+        <v>55</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E57" s="4">
+        <v>56</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E58" s="4">
+        <v>57</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E59" s="4">
+        <v>58</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="4">
+        <v>59</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E61" s="4">
+        <v>60</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E62" s="4">
+        <v>61</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="4">
+        <v>62</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="4">
+        <v>63</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="4">
+        <v>64</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="4">
+        <v>65</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="4">
+        <v>66</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="4">
+        <v>67</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E69" s="4">
+        <v>68</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E70" s="4">
+        <v>69</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E71" s="4">
+        <v>70</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E72" s="4">
+        <v>71</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E73" s="4">
+        <v>72</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E74" s="4">
+        <v>73</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E75" s="4">
+        <v>74</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E76" s="4">
+        <v>75</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E77" s="4">
+        <v>76</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E78" s="4">
+        <v>77</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E79" s="4">
+        <v>78</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E80" s="4">
+        <v>79</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E81" s="4">
+        <v>80</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E82" s="4">
+        <v>81</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E83" s="4">
+        <v>82</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E84" s="4">
+        <v>83</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E85" s="4">
+        <v>84</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E86" s="4">
+        <v>85</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E87" s="4">
+        <v>86</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E88" s="4">
+        <v>87</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E89" s="4">
+        <v>88</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E90" s="4">
+        <v>89</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E91" s="4">
+        <v>90</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E92" s="4">
+        <v>91</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E93" s="4">
+        <v>92</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E94" s="4">
+        <v>93</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E95" s="4">
+        <v>94</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E96" s="4">
+        <v>95</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E97" s="4">
+        <v>96</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E98" s="4">
+        <v>97</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E99" s="4">
+        <v>98</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E100" s="4">
+        <v>99</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E101" s="4">
+        <v>100</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E102" s="4">
+        <v>101</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E103" s="4">
+        <v>102</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E104" s="4">
+        <v>103</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E105" s="4">
+        <v>104</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E106" s="4">
+        <v>105</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E107" s="4">
+        <v>106</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E108" s="4">
+        <v>107</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E109" s="4">
+        <v>108</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E110" s="4">
+        <v>109</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E111" s="4">
+        <v>110</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E112" s="4">
+        <v>111</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E113" s="4">
+        <v>112</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E114" s="4">
+        <v>113</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E115" s="4">
+        <v>114</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E116" s="4">
+        <v>115</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E117" s="4">
+        <v>116</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E118" s="4">
+        <v>117</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E119" s="4">
+        <v>118</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E120" s="4">
+        <v>119</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E121" s="4">
+        <v>120</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E122" s="4">
+        <v>121</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E123" s="4">
+        <v>122</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E124" s="4">
+        <v>123</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E125" s="4">
+        <v>124</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E126" s="4">
+        <v>125</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E127" s="4">
+        <v>126</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E128" s="4">
+        <v>127</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E129" s="4">
+        <v>128</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E130" s="4">
+        <v>129</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E131" s="4">
+        <v>130</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E132" s="4">
+        <v>131</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E133" s="4">
+        <v>132</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E134" s="4">
+        <v>133</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E135" s="4">
+        <v>134</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E136" s="4">
+        <v>135</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E137" s="4">
+        <v>136</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E138" s="6">
+        <v>137</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/공지/샘플데이터 수정 예시안/참고 코드표(심영섭님).xlsx
+++ b/공지/샘플데이터 수정 예시안/참고 코드표(심영섭님).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungWoo\Desktop\GitHub\-ERP-System\공지\샘플데이터 수정 예시안\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B827F0-FF5B-40EB-8BBB-7B8FE0A7CBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48E081D-5959-45D6-8457-7AC411689179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13110" yWindow="1530" windowWidth="19995" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="246">
   <si>
     <t>BRAND_CODE</t>
   </si>
@@ -680,6 +680,84 @@
   </si>
   <si>
     <t>시티브</t>
+  </si>
+  <si>
+    <t>T_SUB_CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>T_SUB_CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>T_SUB_SUB_CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>T_SUB_SUB_CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>QLED</t>
+  </si>
+  <si>
+    <t>mini LED</t>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>P_SUB_CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>P_SUB_CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>데스크탑</t>
+  </si>
+  <si>
+    <t>노트북</t>
+  </si>
+  <si>
+    <t>P_SUB_SUB_CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>P_SUB_SUB_CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>사무용/인강용</t>
+  </si>
+  <si>
+    <t>게이밍</t>
+  </si>
+  <si>
+    <t>비즈니스</t>
+  </si>
+  <si>
+    <t>M_SUB_CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>M_SUB_CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>휴대폰</t>
+  </si>
+  <si>
+    <t>태블릿</t>
+  </si>
+  <si>
+    <t>M_SUB_SUB_CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>M_SUB_SUB_CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>안드로이드</t>
+  </si>
+  <si>
+    <t>윈도우</t>
+  </si>
+  <si>
+    <t>아이패드</t>
   </si>
 </sst>
 </file>
@@ -1244,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1842,6 +1920,12 @@
       <c r="F31" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="H31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1856,8 +1940,14 @@
       <c r="F32" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>32</v>
       </c>
@@ -1871,7 +1961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>33</v>
       </c>
@@ -1884,8 +1974,14 @@
       <c r="F34" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>34</v>
       </c>
@@ -1898,8 +1994,14 @@
       <c r="F35" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>35</v>
       </c>
@@ -1912,8 +2014,14 @@
       <c r="F36" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H36" s="4">
+        <v>2</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>36</v>
       </c>
@@ -1926,8 +2034,14 @@
       <c r="F37" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H37" s="6">
+        <v>3</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <v>37</v>
       </c>
@@ -1941,7 +2055,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <v>38</v>
       </c>
@@ -1955,7 +2069,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <v>39</v>
       </c>
@@ -1968,8 +2082,14 @@
       <c r="F40" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>40</v>
       </c>
@@ -1982,8 +2102,14 @@
       <c r="F41" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>41</v>
       </c>
@@ -1996,8 +2122,14 @@
       <c r="F42" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H42" s="6">
+        <v>2</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>42</v>
       </c>
@@ -2011,7 +2143,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <v>43</v>
       </c>
@@ -2024,8 +2156,14 @@
       <c r="F44" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H44" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <v>44</v>
       </c>
@@ -2038,8 +2176,14 @@
       <c r="F45" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
         <v>45</v>
       </c>
@@ -2052,8 +2196,14 @@
       <c r="F46" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H46" s="4">
+        <v>2</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <v>46</v>
       </c>
@@ -2066,8 +2216,14 @@
       <c r="F47" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H47" s="4">
+        <v>3</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <v>47</v>
       </c>
@@ -2080,8 +2236,14 @@
       <c r="F48" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H48" s="6">
+        <v>4</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <v>48</v>
       </c>
@@ -2095,7 +2257,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>49</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>50</v>
       </c>
@@ -2122,8 +2284,14 @@
       <c r="F51" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H51" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="6">
         <v>51</v>
       </c>
@@ -2136,16 +2304,28 @@
       <c r="F52" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E53" s="4">
         <v>52</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H53" s="6">
+        <v>2</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E54" s="4">
         <v>53</v>
       </c>
@@ -2153,63 +2333,105 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E55" s="4">
         <v>54</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E56" s="4">
         <v>55</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E57" s="4">
         <v>56</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H57" s="4">
+        <v>2</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E58" s="4">
         <v>57</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H58" s="4">
+        <v>3</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E59" s="4">
         <v>58</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H59" s="4">
+        <v>4</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E60" s="4">
         <v>59</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H60" s="4">
+        <v>5</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E61" s="4">
         <v>60</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H61" s="6">
+        <v>6</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E62" s="4">
         <v>61</v>
       </c>
@@ -2217,7 +2439,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E63" s="4">
         <v>62</v>
       </c>
@@ -2225,7 +2447,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E64" s="4">
         <v>63</v>
       </c>
